--- a/02b-interview-question/Work.4. Assignment.Table.xlsx
+++ b/02b-interview-question/Work.4. Assignment.Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengqitian/Desktop/Vanderbilt/semester 1/statistics/probability-and-inference-portfolio-tian-zhengqi/02b-interview-question/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B09E8D-E6AC-674A-96A9-D551EA4826F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB4860E-53D2-3D4F-B010-957D5D4F9C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{53F0A695-10A3-B341-B5BE-EB0F9796DA5B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{53F0A695-10A3-B341-B5BE-EB0F9796DA5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Method 1" sheetId="1" r:id="rId1"/>
@@ -153,9 +153,6 @@
     <t>P(HHHH | Basied)</t>
   </si>
   <si>
-    <t>P(Basied |HHHHH)</t>
-  </si>
-  <si>
     <t>P(No HHHH &amp; Basied)</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>p(basied)</t>
+  </si>
+  <si>
+    <t>P(Basied |HHHH)</t>
   </si>
 </sst>
 </file>
@@ -614,7 +614,7 @@
   <dimension ref="A2:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:L5"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -796,7 +796,7 @@
         <v>0.11034482758620691</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="L5" s="14">
         <f>L3/$N$3</f>
@@ -842,14 +842,14 @@
         <v>0.1875</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L6" s="13">
         <f>L7*L9</f>
         <v>0.13671875</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N6" s="17">
         <f>D6+F6+H6+J6+L6</f>
@@ -891,7 +891,7 @@
         <v>0.9375</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L7" s="13">
         <f>1-L4</f>
@@ -935,7 +935,7 @@
         <v>0.21145374449339208</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L8" s="8">
         <f>L6/$N$6</f>
@@ -950,35 +950,35 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="10">
         <f>1/5</f>
         <v>0.2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="10">
         <f>1/5</f>
         <v>0.2</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" s="10">
         <f>1/5</f>
         <v>0.2</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J9" s="10">
         <f>1/5</f>
         <v>0.2</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L9" s="11">
         <f>1/5</f>
